--- a/database/merise/src/exercice4_video_club/doc/data_dictionary.xlsx
+++ b/database/merise/src/exercice4_video_club/doc/data_dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fturl\Documents\GitHub\FTurleque\abc_2105-perso\database\merise\src\exercice4_video_club\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fturl\Documents\GitHub\FTurleque\abc_2105-perso\database\merise\src\exercice4_video_club\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912088BD-96CF-45DB-A20B-9CAF7CC97F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF296F-7CF2-4D2B-B8F6-394DD25BB6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>Mnémonique</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Code Postal du client.</t>
   </si>
   <si>
-    <t>Supplement d'adresse du client.</t>
-  </si>
-  <si>
     <t>Nom de la ville du client.</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>Code Postal du magasin.</t>
   </si>
   <si>
-    <t>Supplement d'adresse du magasin.</t>
-  </si>
-  <si>
     <t>Nom de la ville du magasin.</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>Etat de la cassette vidéo.</t>
   </si>
   <si>
-    <t>Oblibatoire</t>
-  </si>
-  <si>
     <t>tape_condition_def</t>
   </si>
   <si>
@@ -290,6 +281,12 @@
   </si>
   <si>
     <t>Nombre de fois que la cassette a été louée.</t>
+  </si>
+  <si>
+    <t>Supplément d'adresse du magasin.</t>
+  </si>
+  <si>
+    <t>Supplément d'adresse du client.</t>
   </si>
 </sst>
 </file>
@@ -872,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,10 +901,10 @@
     </row>
     <row r="2" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>7</v>
@@ -941,7 +938,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>7</v>
@@ -958,7 +955,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>15</v>
@@ -975,7 +972,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>7</v>
@@ -992,7 +989,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>15</v>
@@ -1009,7 +1006,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>11</v>
@@ -1128,7 +1125,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>15</v>
@@ -1145,7 +1142,7 @@
         <v>56</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>11</v>
@@ -1257,10 +1254,10 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>11</v>
@@ -1269,15 +1266,15 @@
         <v>16</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>11</v>
@@ -1291,10 +1288,10 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>29</v>
@@ -1306,10 +1303,10 @@
     </row>
     <row r="26" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C26" s="35" t="s">
         <v>7</v>
@@ -1323,10 +1320,10 @@
     </row>
     <row r="27" spans="1:5" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>7</v>
